--- a/Reliablity Test 50 Trials 1mL.xlsx
+++ b/Reliablity Test 50 Trials 1mL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Trial</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>Amount Dispensed Experimental (1mL)Pipette (g)</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean </t>
+  </si>
+  <si>
+    <t>Normal Distribution</t>
   </si>
 </sst>
 </file>
@@ -350,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,9 +370,10 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,8 +383,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -384,397 +397,615 @@
       <c r="C2">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.18858826268395096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>0.19550000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.45714887860619569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.74789240113981781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5">
         <v>0.19639999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.90117317960669285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6">
         <v>0.1953</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.33804091328937258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.74789240113981781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8">
         <v>0.19539999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.39638416909805868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9">
         <v>0.1953</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.33804091328937258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.18858826268395096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11">
         <v>0.1958</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.63970695750780715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12">
         <v>0.19550000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.45714887860619569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.74789240113981781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14">
         <v>0.19520000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.28335145032380377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15">
         <v>0.19589999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.69594525144950381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16">
         <v>0.19439999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>3.4861944460413505E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17">
         <v>0.19420000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>1.6839387667327926E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="C18">
         <v>0.19589999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.69594525144950381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19">
         <v>0.19420000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>1.6839387667327926E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20">
         <v>0.1956</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.51893429188463269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21">
         <v>0.1958</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.63970695750780715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="C22">
         <v>0.1958</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.63970695750780715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="C23">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.18858826268395096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="C24">
         <v>0.19620000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.8359798296498121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="C25">
         <v>0.19589999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.69594525144950381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="C26">
         <v>0.1958</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.63970695750780715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="C27">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.74789240113981781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="C28">
         <v>0.1953</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.33804091328937258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="C29">
         <v>0.1953</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.33804091328937258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="C30">
         <v>0.19550000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.45714887860619569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="C31">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.18858826268395096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="C32">
         <v>0.1963</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.87142793274056651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="C33">
         <v>0.19639999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.90117317960669285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="C34">
         <v>0.1958</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.63970695750780715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="C35">
         <v>0.1953</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.33804091328937258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="C36">
         <v>0.19520000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.28335145032380377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="C37">
         <v>0.19589999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.69594525144950381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="C38">
         <v>0.19450000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>4.8598013296101625E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="C39">
         <v>0.1963</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.87142793274056651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="C40">
         <v>0.19550000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.45714887860619569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="C41">
         <v>0.19689999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.98047960181947624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="C42">
         <v>0.1953</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.33804091328937258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="C43">
         <v>0.1963</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.87142793274056651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="C44">
         <v>0.19489999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.14958641423928398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="C45">
         <v>0.19689999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.98047960181947624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="C46">
         <v>0.1958</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.63970695750780715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="C47">
         <v>0.19439999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>3.4861944460413505E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="C48">
         <v>0.1961</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.79473759771980812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="C49">
         <v>0.1946</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>6.6354603692795208E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="C50">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.74789240113981781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="C51">
         <v>0.1953</v>
+      </c>
+      <c r="D51">
+        <f>NORMDIST(C:C,C54,C55,TRUE )</f>
+        <v>0.33804091328937258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <f>AVERAGE(C3:C51)</f>
+        <v>0.19556938775510196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f>STDEV(C2:C50)</f>
+        <v>6.4475249694198415E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Reliablity Test 50 Trials 1mL.xlsx
+++ b/Reliablity Test 50 Trials 1mL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Trial</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Normal Distribution</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
   </si>
 </sst>
 </file>
@@ -94,6 +97,1173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1958</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1958</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.19550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1963</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1958</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1961</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.1946</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.19134992615253199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46385161033714084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75536258947399948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90611768412531579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34324830665123374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75536258947399948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4023866108954709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34324830665123374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19134992615253199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64750146489758187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46385161033714084</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75536258947399948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28772147687649463</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7036830807212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5026357771349791E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6816320278533182E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7036830807212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6816320278533182E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52619349468553367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64750146489758187</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64750146489758187</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19134992615253199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84239303744317007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7036830807212</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64750146489758187</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75536258947399948</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34324830665123374</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34324830665123374</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.46385161033714084</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19134992615253199</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87713456585525096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90611768412531579</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64750146489758187</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34324830665123374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28772147687649463</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7036830807212</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8949050734939374E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87713456585525096</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46385161033714084</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98210998236378244</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34324830665123374</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.87713456585525096</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15165243767978065</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98210998236378244</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64750146489758187</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5026357771349791E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80175378311338263</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6976955389516313E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.75536258947399948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34324830665123374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1910113536"/>
+        <c:axId val="1864734960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1910113536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1864734960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1864734960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910113536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +1569,7 @@
       </c>
       <c r="D2">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.18858826268395096</v>
+        <v>0.19134992615253199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -411,7 +1581,7 @@
       </c>
       <c r="D3">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.45714887860619569</v>
+        <v>0.46385161033714084</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -423,7 +1593,7 @@
       </c>
       <c r="D4">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.74789240113981781</v>
+        <v>0.75536258947399948</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -435,7 +1605,7 @@
       </c>
       <c r="D5">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.90117317960669285</v>
+        <v>0.90611768412531579</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,7 +1617,7 @@
       </c>
       <c r="D6">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.33804091328937258</v>
+        <v>0.34324830665123374</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,7 +1629,7 @@
       </c>
       <c r="D7">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.74789240113981781</v>
+        <v>0.75536258947399948</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,7 +1641,7 @@
       </c>
       <c r="D8">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.39638416909805868</v>
+        <v>0.4023866108954709</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,7 +1653,7 @@
       </c>
       <c r="D9">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.33804091328937258</v>
+        <v>0.34324830665123374</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,7 +1665,7 @@
       </c>
       <c r="D10">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.18858826268395096</v>
+        <v>0.19134992615253199</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,7 +1677,7 @@
       </c>
       <c r="D11">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.63970695750780715</v>
+        <v>0.64750146489758187</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,7 +1689,7 @@
       </c>
       <c r="D12">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.45714887860619569</v>
+        <v>0.46385161033714084</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,7 +1701,7 @@
       </c>
       <c r="D13">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.74789240113981781</v>
+        <v>0.75536258947399948</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,7 +1713,7 @@
       </c>
       <c r="D14">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.28335145032380377</v>
+        <v>0.28772147687649463</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,7 +1725,7 @@
       </c>
       <c r="D15">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.69594525144950381</v>
+        <v>0.7036830807212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,7 +1737,7 @@
       </c>
       <c r="D16">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>3.4861944460413505E-2</v>
+        <v>3.5026357771349791E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,7 +1749,7 @@
       </c>
       <c r="D17">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>1.6839387667327926E-2</v>
+        <v>1.6816320278533182E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,7 +1761,7 @@
       </c>
       <c r="D18">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.69594525144950381</v>
+        <v>0.7036830807212</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,7 +1773,7 @@
       </c>
       <c r="D19">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>1.6839387667327926E-2</v>
+        <v>1.6816320278533182E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +1785,7 @@
       </c>
       <c r="D20">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.51893429188463269</v>
+        <v>0.52619349468553367</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,7 +1797,7 @@
       </c>
       <c r="D21">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.63970695750780715</v>
+        <v>0.64750146489758187</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +1809,7 @@
       </c>
       <c r="D22">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.63970695750780715</v>
+        <v>0.64750146489758187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,7 +1821,7 @@
       </c>
       <c r="D23">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.18858826268395096</v>
+        <v>0.19134992615253199</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,7 +1833,7 @@
       </c>
       <c r="D24">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.8359798296498121</v>
+        <v>0.84239303744317007</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,7 +1845,7 @@
       </c>
       <c r="D25">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.69594525144950381</v>
+        <v>0.7036830807212</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +1857,7 @@
       </c>
       <c r="D26">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.63970695750780715</v>
+        <v>0.64750146489758187</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +1869,7 @@
       </c>
       <c r="D27">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.74789240113981781</v>
+        <v>0.75536258947399948</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,7 +1881,7 @@
       </c>
       <c r="D28">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.33804091328937258</v>
+        <v>0.34324830665123374</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +1893,7 @@
       </c>
       <c r="D29">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.33804091328937258</v>
+        <v>0.34324830665123374</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,7 +1905,7 @@
       </c>
       <c r="D30">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.45714887860619569</v>
+        <v>0.46385161033714084</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,7 +1917,7 @@
       </c>
       <c r="D31">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.18858826268395096</v>
+        <v>0.19134992615253199</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +1929,7 @@
       </c>
       <c r="D32">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.87142793274056651</v>
+        <v>0.87713456585525096</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +1941,7 @@
       </c>
       <c r="D33">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.90117317960669285</v>
+        <v>0.90611768412531579</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,7 +1953,7 @@
       </c>
       <c r="D34">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.63970695750780715</v>
+        <v>0.64750146489758187</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +1965,7 @@
       </c>
       <c r="D35">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.33804091328937258</v>
+        <v>0.34324830665123374</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,7 +1977,7 @@
       </c>
       <c r="D36">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.28335145032380377</v>
+        <v>0.28772147687649463</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +1989,7 @@
       </c>
       <c r="D37">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.69594525144950381</v>
+        <v>0.7036830807212</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,7 +2001,7 @@
       </c>
       <c r="D38">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>4.8598013296101625E-2</v>
+        <v>4.8949050734939374E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +2013,7 @@
       </c>
       <c r="D39">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.87142793274056651</v>
+        <v>0.87713456585525096</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,7 +2025,7 @@
       </c>
       <c r="D40">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.45714887860619569</v>
+        <v>0.46385161033714084</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,7 +2037,7 @@
       </c>
       <c r="D41">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.98047960181947624</v>
+        <v>0.98210998236378244</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,7 +2049,7 @@
       </c>
       <c r="D42">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.33804091328937258</v>
+        <v>0.34324830665123374</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +2061,7 @@
       </c>
       <c r="D43">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.87142793274056651</v>
+        <v>0.87713456585525096</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,7 +2073,7 @@
       </c>
       <c r="D44">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.14958641423928398</v>
+        <v>0.15165243767978065</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,7 +2085,7 @@
       </c>
       <c r="D45">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.98047960181947624</v>
+        <v>0.98210998236378244</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +2097,7 @@
       </c>
       <c r="D46">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.63970695750780715</v>
+        <v>0.64750146489758187</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +2109,7 @@
       </c>
       <c r="D47">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>3.4861944460413505E-2</v>
+        <v>3.5026357771349791E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,7 +2121,7 @@
       </c>
       <c r="D48">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.79473759771980812</v>
+        <v>0.80175378311338263</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,7 +2133,7 @@
       </c>
       <c r="D49">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>6.6354603692795208E-2</v>
+        <v>6.6976955389516313E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +2145,7 @@
       </c>
       <c r="D50">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.74789240113981781</v>
+        <v>0.75536258947399948</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,7 +2157,7 @@
       </c>
       <c r="D51">
         <f>NORMDIST(C:C,C54,C55,TRUE )</f>
-        <v>0.33804091328937258</v>
+        <v>0.34324830665123374</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,8 +2165,8 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <f>AVERAGE(C3:C51)</f>
-        <v>0.19556938775510196</v>
+        <f>AVERAGE(C2:C51)</f>
+        <v>0.19555799999999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,12 +2174,22 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <f>STDEV(C2:C50)</f>
-        <v>6.4475249694198415E-4</v>
+        <f>STDEV(C2:C51)</f>
+        <v>6.3922465789838256E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <f>(C55/(SQRT(50)))</f>
+        <v>9.040001806031945E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>